--- a/brands/CATALOGUE.xlsx
+++ b/brands/CATALOGUE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fsizo\OneDrive\Documents\GitHub\size-adviser-server\brands\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fsizo\Documents\GitHub\size-adviser-server\brands\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89ED4C8D-16E0-4099-AE75-71345647C373}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E3A45BD-446F-4190-823D-FAB241964587}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2505" yWindow="1185" windowWidth="15375" windowHeight="7830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
     <t>Nike</t>
   </si>
   <si>
-    <t>Reebok</t>
+    <t>Asics</t>
   </si>
 </sst>
 </file>
@@ -368,7 +368,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -396,7 +396,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" t="str">
         <f>"000002"</f>
@@ -405,7 +405,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="str">
         <f>"000003"</f>
